--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3391366.132607295</v>
+        <v>-3392044.313914827</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="E11" t="n">
-        <v>122.7111663740568</v>
+        <v>0.426979013090488</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>122.7111663740568</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037784</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>33.0623814045185</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428239</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,28 +1491,28 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>20.73635203332425</v>
+      </c>
+      <c r="U12" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="T12" t="n">
-        <v>81.20874770839417</v>
-      </c>
-      <c r="U12" t="n">
-        <v>43.01612417394762</v>
-      </c>
       <c r="V12" t="n">
-        <v>46.43735102801256</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="W12" t="n">
         <v>72.4930136896219</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208092</v>
+        <v>108.3930797467439</v>
       </c>
       <c r="Y12" t="n">
         <v>29.17271624663593</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278779</v>
+        <v>9.003274493278782</v>
       </c>
       <c r="S13" t="n">
         <v>41.14309824393258</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>67.20002703306953</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>61.69698309189138</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037789</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451856</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428245</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>122.7111663740568</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="S15" t="n">
-        <v>60.47239567506951</v>
-      </c>
       <c r="T15" t="n">
-        <v>20.73635203332431</v>
+        <v>20.73635203332428</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394768</v>
+        <v>43.01612417394765</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801261</v>
+        <v>65.37695557279618</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962196</v>
+        <v>72.49301368962193</v>
       </c>
       <c r="X15" t="n">
-        <v>23.10134455208097</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663599</v>
+        <v>29.17271624663596</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278836</v>
+        <v>9.003274493278811</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393263</v>
+        <v>41.14309824393261</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521121</v>
+        <v>29.52954681521118</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269442</v>
+        <v>94.44472612269439</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706027</v>
+        <v>50.89744529706024</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194569</v>
+        <v>96.09913720194567</v>
       </c>
       <c r="X16" t="n">
-        <v>27.7078855208529</v>
+        <v>27.70788552085287</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677879</v>
+        <v>22.92970292677876</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55915463258606</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G17" t="n">
-        <v>98.18116457427345</v>
+        <v>98.18116457427257</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653696</v>
+        <v>26.26582637653702</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>108.0839953422692</v>
       </c>
       <c r="S18" t="n">
         <v>122.7111663740568</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>122.7111663740568</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>50.00696465057945</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924052</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258606</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427345</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653695</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>117.4872185223613</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.14101078849124</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>122.7111663740568</v>
       </c>
       <c r="X21" t="n">
-        <v>50.00696465057944</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258606</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427345</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653696</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>101.942984553778</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.14101078849124</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="V24" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="W24" t="n">
-        <v>50.00696465057944</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148489</v>
+        <v>27.6779980714849</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>138.3528644350112</v>
+        <v>31.72553872957792</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02733785443131</v>
+        <v>2.027337854431311</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505468</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911961</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>53.78399951072896</v>
@@ -2843,7 +2843,7 @@
         <v>14.35336722562556</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389448</v>
+        <v>9.498608495389446</v>
       </c>
       <c r="U29" t="n">
         <v>37.22910417518455</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>25.58452794108688</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>49.65259400731542</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02733785443131</v>
+        <v>2.027337854431311</v>
       </c>
       <c r="U30" t="n">
         <v>24.30710999505468</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911961</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78399951072896</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="31">
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148489</v>
+        <v>27.6779980714849</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>50.98696048300355</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.14101078849124</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.85022898939866</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
-        <v>2.02733785443131</v>
+        <v>2.027337854431311</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505468</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V33" t="n">
         <v>27.72833684911961</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452522952</v>
       </c>
       <c r="V35" t="n">
         <v>72.56857282020781</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>108.8096437179138</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3387,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>55.68947770537313</v>
+        <v>18.39337278806738</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.14415677284339</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.14101078849124</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.46023248335425</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>18.39337278806738</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>83.83238028536032</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.297808567832253</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,22 +3861,22 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05033877763472105</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>47.38118934403209</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>134.5478183800053</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>26.10600143924407</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.7182395201403</v>
+        <v>428.9557724873374</v>
       </c>
       <c r="C11" t="n">
-        <v>257.7182395201403</v>
+        <v>305.0050993822296</v>
       </c>
       <c r="D11" t="n">
-        <v>257.7182395201403</v>
+        <v>181.0544262771217</v>
       </c>
       <c r="E11" t="n">
-        <v>133.7675664150324</v>
+        <v>180.623134344707</v>
       </c>
       <c r="F11" t="n">
-        <v>133.7675664150324</v>
+        <v>180.623134344707</v>
       </c>
       <c r="G11" t="n">
-        <v>133.7675664150324</v>
+        <v>180.623134344707</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816893309924545</v>
+        <v>56.67246123959913</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J11" t="n">
-        <v>126.9687252395235</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K11" t="n">
-        <v>126.9687252395235</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="L11" t="n">
-        <v>175.3558544907352</v>
+        <v>104.837601730866</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0718186688983</v>
+        <v>187.5535659090291</v>
       </c>
       <c r="N11" t="n">
-        <v>335.2837776073478</v>
+        <v>264.7655248474786</v>
       </c>
       <c r="O11" t="n">
-        <v>371.2834822117429</v>
+        <v>386.2495795577948</v>
       </c>
       <c r="P11" t="n">
         <v>386.2495795577948</v>
@@ -5066,25 +5066,25 @@
         <v>490.8446654962272</v>
       </c>
       <c r="S11" t="n">
-        <v>490.8446654962272</v>
+        <v>457.4483206431782</v>
       </c>
       <c r="T11" t="n">
-        <v>490.8446654962272</v>
+        <v>428.9557724873374</v>
       </c>
       <c r="U11" t="n">
-        <v>490.8446654962272</v>
+        <v>428.9557724873374</v>
       </c>
       <c r="V11" t="n">
-        <v>490.8446654962272</v>
+        <v>428.9557724873374</v>
       </c>
       <c r="W11" t="n">
-        <v>490.8446654962272</v>
+        <v>428.9557724873374</v>
       </c>
       <c r="X11" t="n">
-        <v>490.8446654962272</v>
+        <v>428.9557724873374</v>
       </c>
       <c r="Y11" t="n">
-        <v>381.6689126252483</v>
+        <v>428.9557724873374</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="C12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="D12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="E12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="F12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="G12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="H12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="I12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K12" t="n">
-        <v>9.816893309924545</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="L12" t="n">
-        <v>128.376484278129</v>
+        <v>167.2520893996963</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1726257573487</v>
+        <v>288.7361441100126</v>
       </c>
       <c r="N12" t="n">
-        <v>284.656680467665</v>
+        <v>406.1407351779811</v>
       </c>
       <c r="O12" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779811</v>
       </c>
       <c r="P12" t="n">
         <v>490.8446654962272</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.641624295731</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="R12" t="n">
-        <v>484.641624295731</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="S12" t="n">
-        <v>360.6909511906231</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="T12" t="n">
-        <v>278.661913101336</v>
+        <v>469.8988553615562</v>
       </c>
       <c r="U12" t="n">
-        <v>235.2112826226011</v>
+        <v>345.9481822564483</v>
       </c>
       <c r="V12" t="n">
-        <v>188.3048674427904</v>
+        <v>221.9975091513405</v>
       </c>
       <c r="W12" t="n">
-        <v>115.079601089637</v>
+        <v>148.772242798187</v>
       </c>
       <c r="X12" t="n">
-        <v>91.74490962288857</v>
+        <v>39.28428345804164</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="D13" t="n">
-        <v>58.35552375023673</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="E13" t="n">
-        <v>110.3655981386498</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="F13" t="n">
-        <v>165.0974389309034</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="G13" t="n">
-        <v>165.0974389309034</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="H13" t="n">
-        <v>165.0974389309034</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="I13" t="n">
-        <v>165.0974389309034</v>
+        <v>64.54873410217814</v>
       </c>
       <c r="J13" t="n">
-        <v>238.664544840669</v>
+        <v>138.1158400119438</v>
       </c>
       <c r="K13" t="n">
-        <v>238.664544840669</v>
+        <v>259.59989472226</v>
       </c>
       <c r="L13" t="n">
-        <v>238.664544840669</v>
+        <v>381.0839494325762</v>
       </c>
       <c r="M13" t="n">
-        <v>238.664544840669</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="N13" t="n">
-        <v>238.664544840669</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="O13" t="n">
-        <v>238.664544840669</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903593</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="Q13" t="n">
         <v>385.3268090894743</v>
@@ -5242,7 +5242,7 @@
         <v>32.97820939757983</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>124.5512764245179</v>
+        <v>366.8939923911193</v>
       </c>
       <c r="C14" t="n">
-        <v>124.5512764245179</v>
+        <v>366.8939923911193</v>
       </c>
       <c r="D14" t="n">
-        <v>124.5512764245179</v>
+        <v>366.8939923911193</v>
       </c>
       <c r="E14" t="n">
-        <v>56.67246123959919</v>
+        <v>366.8939923911193</v>
       </c>
       <c r="F14" t="n">
-        <v>56.67246123959919</v>
+        <v>242.9433192860114</v>
       </c>
       <c r="G14" t="n">
-        <v>56.67246123959919</v>
+        <v>180.623134344707</v>
       </c>
       <c r="H14" t="n">
-        <v>56.67246123959919</v>
+        <v>56.67246123959914</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J14" t="n">
-        <v>126.9687252395235</v>
+        <v>86.27776328153847</v>
       </c>
       <c r="K14" t="n">
-        <v>126.9687252395235</v>
+        <v>86.27776328153847</v>
       </c>
       <c r="L14" t="n">
-        <v>175.3558544907351</v>
+        <v>134.6648925327501</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0718186688983</v>
+        <v>256.1489472430663</v>
       </c>
       <c r="N14" t="n">
-        <v>335.2837776073478</v>
+        <v>333.3609061815158</v>
       </c>
       <c r="O14" t="n">
-        <v>371.2834822117429</v>
+        <v>369.3606107859109</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2495795577949</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="Q14" t="n">
         <v>490.8446654962272</v>
@@ -5303,25 +5303,25 @@
         <v>490.8446654962272</v>
       </c>
       <c r="S14" t="n">
-        <v>457.4483206431782</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="T14" t="n">
-        <v>428.9557724873374</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="U14" t="n">
-        <v>372.4526226347338</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="V14" t="n">
-        <v>248.5019495296258</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="W14" t="n">
-        <v>248.5019495296258</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="X14" t="n">
-        <v>248.5019495296258</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="Y14" t="n">
-        <v>248.5019495296258</v>
+        <v>366.8939923911193</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="C15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="D15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="E15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="F15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="G15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="H15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="I15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K15" t="n">
-        <v>48.6924984314919</v>
+        <v>41.68857104703245</v>
       </c>
       <c r="L15" t="n">
-        <v>48.6924984314919</v>
+        <v>41.68857104703245</v>
       </c>
       <c r="M15" t="n">
-        <v>170.1765531418081</v>
+        <v>163.1726257573487</v>
       </c>
       <c r="N15" t="n">
-        <v>284.656680467665</v>
+        <v>284.6566804676649</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779811</v>
       </c>
       <c r="P15" t="n">
         <v>490.8446654962272</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.641624295731</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="R15" t="n">
-        <v>360.6909511906231</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="S15" t="n">
-        <v>299.6077232360074</v>
+        <v>366.8939923911193</v>
       </c>
       <c r="T15" t="n">
-        <v>278.6619131013364</v>
+        <v>345.9481822564483</v>
       </c>
       <c r="U15" t="n">
-        <v>235.2112826226013</v>
+        <v>302.4975517777133</v>
       </c>
       <c r="V15" t="n">
-        <v>188.3048674427906</v>
+        <v>236.460222916303</v>
       </c>
       <c r="W15" t="n">
-        <v>115.0796010896371</v>
+        <v>163.2349565631495</v>
       </c>
       <c r="X15" t="n">
-        <v>91.74490962288863</v>
+        <v>39.28428345804167</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="D16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="E16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="F16" t="n">
-        <v>64.54873410217809</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="G16" t="n">
-        <v>64.54873410217809</v>
+        <v>35.07731671699967</v>
       </c>
       <c r="H16" t="n">
-        <v>64.54873410217809</v>
+        <v>35.07731671699967</v>
       </c>
       <c r="I16" t="n">
-        <v>64.54873410217809</v>
+        <v>64.28476887663491</v>
       </c>
       <c r="J16" t="n">
-        <v>64.54873410217809</v>
+        <v>137.8518747864005</v>
       </c>
       <c r="K16" t="n">
-        <v>64.54873410217809</v>
+        <v>137.8518747864005</v>
       </c>
       <c r="L16" t="n">
-        <v>186.0327888124943</v>
+        <v>259.3359294967167</v>
       </c>
       <c r="M16" t="n">
-        <v>186.0327888124943</v>
+        <v>259.3359294967167</v>
       </c>
       <c r="N16" t="n">
-        <v>186.0327888124943</v>
+        <v>380.819984207033</v>
       </c>
       <c r="O16" t="n">
-        <v>197.1215076800436</v>
+        <v>380.819984207033</v>
       </c>
       <c r="P16" t="n">
-        <v>318.6055623903599</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894748</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295972</v>
+        <v>376.232592429597</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347158</v>
+        <v>334.6739073347156</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688459</v>
+        <v>304.8460822688457</v>
       </c>
       <c r="U16" t="n">
-        <v>209.447369013599</v>
+        <v>209.4473690135989</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074775</v>
+        <v>158.0358081074774</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995655</v>
+        <v>60.9659725499565</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757989</v>
+        <v>32.97820939757986</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154747</v>
+        <v>317.4102657154743</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633676</v>
+        <v>287.5525337633671</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203025</v>
+        <v>270.253728820302</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111677</v>
+        <v>218.9076992111672</v>
       </c>
       <c r="F17" t="n">
-        <v>135.520924573369</v>
+        <v>135.5209245733685</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400229</v>
+        <v>36.34803106400234</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K17" t="n">
-        <v>9.816893309924545</v>
+        <v>131.3009480202408</v>
       </c>
       <c r="L17" t="n">
-        <v>58.2040225611362</v>
+        <v>179.6880772714524</v>
       </c>
       <c r="M17" t="n">
-        <v>140.9199867392994</v>
+        <v>301.1721319817686</v>
       </c>
       <c r="N17" t="n">
-        <v>218.1319456777489</v>
+        <v>422.6561866920849</v>
       </c>
       <c r="O17" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="P17" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="Q17" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="R17" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="S17" t="n">
-        <v>323.8080988491214</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="T17" t="n">
-        <v>421.0529775341729</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="U17" t="n">
         <v>490.8446654962272</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471774</v>
+        <v>490.6088666471769</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227591</v>
+        <v>473.1845019227584</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923412</v>
+        <v>433.6528134923408</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914753</v>
+        <v>371.3909703914749</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>186.2281925798794</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="C18" t="n">
-        <v>186.2281925798794</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="D18" t="n">
-        <v>186.2281925798794</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="E18" t="n">
-        <v>186.2281925798794</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="F18" t="n">
-        <v>186.2281925798794</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="G18" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="H18" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="I18" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K18" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2520893996963</v>
+        <v>163.1726257573487</v>
       </c>
       <c r="M18" t="n">
-        <v>288.7361441100126</v>
+        <v>163.1726257573487</v>
       </c>
       <c r="N18" t="n">
-        <v>406.1407351779812</v>
+        <v>284.6566804676649</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779811</v>
       </c>
       <c r="P18" t="n">
         <v>490.8446654962272</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.641624295731</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="R18" t="n">
-        <v>484.641624295731</v>
+        <v>381.6689126252481</v>
       </c>
       <c r="S18" t="n">
-        <v>360.6909511906231</v>
+        <v>257.7182395201403</v>
       </c>
       <c r="T18" t="n">
-        <v>360.6909511906231</v>
+        <v>257.7182395201403</v>
       </c>
       <c r="U18" t="n">
-        <v>360.6909511906231</v>
+        <v>257.7182395201403</v>
       </c>
       <c r="V18" t="n">
-        <v>236.7402780855152</v>
+        <v>257.7182395201403</v>
       </c>
       <c r="W18" t="n">
-        <v>236.7402780855152</v>
+        <v>257.7182395201403</v>
       </c>
       <c r="X18" t="n">
-        <v>186.2281925798794</v>
+        <v>257.7182395201403</v>
       </c>
       <c r="Y18" t="n">
-        <v>186.2281925798794</v>
+        <v>133.7675664150324</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154752</v>
+        <v>317.4102657154751</v>
       </c>
       <c r="C20" t="n">
         <v>287.552533763368</v>
@@ -5738,64 +5738,64 @@
         <v>218.9076992111681</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733694</v>
+        <v>135.5209245733693</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400227</v>
+        <v>36.34803106400233</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="I20" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J20" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K20" t="n">
-        <v>9.816893309924545</v>
+        <v>87.94863295898212</v>
       </c>
       <c r="L20" t="n">
-        <v>58.2040225611362</v>
+        <v>209.4326876692983</v>
       </c>
       <c r="M20" t="n">
-        <v>140.9199867392994</v>
+        <v>292.1486518474615</v>
       </c>
       <c r="N20" t="n">
-        <v>218.1319456777489</v>
+        <v>369.3606107859109</v>
       </c>
       <c r="O20" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="P20" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="Q20" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="R20" t="n">
-        <v>254.131650282144</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="S20" t="n">
-        <v>346.5703178242617</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="T20" t="n">
-        <v>421.0529775341729</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="U20" t="n">
         <v>490.8446654962272</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471774</v>
+        <v>490.6088666471773</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227591</v>
+        <v>473.184501922759</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923415</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914757</v>
+        <v>371.3909703914756</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.27751947477147</v>
+        <v>236.7402780855152</v>
       </c>
       <c r="C21" t="n">
-        <v>62.27751947477147</v>
+        <v>118.06631998212</v>
       </c>
       <c r="D21" t="n">
-        <v>62.27751947477147</v>
+        <v>118.06631998212</v>
       </c>
       <c r="E21" t="n">
-        <v>62.27751947477147</v>
+        <v>118.06631998212</v>
       </c>
       <c r="F21" t="n">
-        <v>62.27751947477147</v>
+        <v>118.06631998212</v>
       </c>
       <c r="G21" t="n">
-        <v>62.27751947477147</v>
+        <v>118.06631998212</v>
       </c>
       <c r="H21" t="n">
-        <v>62.27751947477147</v>
+        <v>118.06631998212</v>
       </c>
       <c r="I21" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K21" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2520893996963</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="M21" t="n">
-        <v>288.7361441100126</v>
+        <v>163.1726257573487</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7361441100126</v>
+        <v>284.6566804676649</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779811</v>
       </c>
       <c r="P21" t="n">
         <v>490.8446654962272</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957309</v>
       </c>
       <c r="R21" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957309</v>
       </c>
       <c r="S21" t="n">
-        <v>484.641624295731</v>
+        <v>360.6909511906231</v>
       </c>
       <c r="T21" t="n">
-        <v>484.641624295731</v>
+        <v>360.6909511906231</v>
       </c>
       <c r="U21" t="n">
         <v>360.6909511906231</v>
       </c>
       <c r="V21" t="n">
+        <v>360.6909511906231</v>
+      </c>
+      <c r="W21" t="n">
         <v>236.7402780855152</v>
       </c>
-      <c r="W21" t="n">
-        <v>112.7896049804073</v>
-      </c>
       <c r="X21" t="n">
-        <v>62.27751947477147</v>
+        <v>236.7402780855152</v>
       </c>
       <c r="Y21" t="n">
-        <v>62.27751947477147</v>
+        <v>236.7402780855152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924543</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>287.552533763368</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203029</v>
+        <v>270.2537288203028</v>
       </c>
       <c r="E23" t="n">
         <v>218.9076992111681</v>
@@ -5978,61 +5978,61 @@
         <v>135.5209245733694</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400229</v>
+        <v>36.34803106400234</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924545</v>
+        <v>103.6412951028493</v>
       </c>
       <c r="K23" t="n">
-        <v>9.816893309924545</v>
+        <v>103.6412951028493</v>
       </c>
       <c r="L23" t="n">
-        <v>58.2040225611362</v>
+        <v>225.1253498131657</v>
       </c>
       <c r="M23" t="n">
-        <v>140.9199867392994</v>
+        <v>307.8413139913288</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1319456777489</v>
+        <v>385.0532729297782</v>
       </c>
       <c r="O23" t="n">
-        <v>254.131650282144</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="P23" t="n">
-        <v>254.131650282144</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.9219432437932</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="R23" t="n">
-        <v>398.4059979541094</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="S23" t="n">
-        <v>490.8446654962272</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="T23" t="n">
-        <v>490.8446654962272</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="V23" t="n">
-        <v>490.6088666471774</v>
+        <v>490.6088666471778</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227591</v>
+        <v>473.1845019227595</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923419</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914758</v>
+        <v>371.3909703914759</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I24" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L24" t="n">
-        <v>128.376484278129</v>
+        <v>126.3925013652786</v>
       </c>
       <c r="M24" t="n">
-        <v>249.8605389884452</v>
+        <v>247.876556075595</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3445936987615</v>
+        <v>369.3606107859113</v>
       </c>
       <c r="O24" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="R24" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="S24" t="n">
-        <v>360.6909511906231</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="T24" t="n">
-        <v>360.6909511906231</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="U24" t="n">
-        <v>236.7402780855152</v>
+        <v>360.6909511906234</v>
       </c>
       <c r="V24" t="n">
-        <v>112.7896049804073</v>
+        <v>236.7402780855154</v>
       </c>
       <c r="W24" t="n">
-        <v>62.27751947477147</v>
+        <v>236.7402780855154</v>
       </c>
       <c r="X24" t="n">
-        <v>62.27751947477147</v>
+        <v>112.7896049804074</v>
       </c>
       <c r="Y24" t="n">
-        <v>62.27751947477147</v>
+        <v>112.7896049804074</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686423</v>
+        <v>885.8369123686415</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666781</v>
+        <v>759.7242097666772</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986442</v>
+        <v>599.5642824986434</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019461</v>
+        <v>407.3636102019456</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336797</v>
+        <v>199.3768190336793</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070287</v>
+        <v>64.03178362070241</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J26" t="n">
         <v>171.7479657778252</v>
@@ -6230,19 +6230,19 @@
         <v>377.2225660613047</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381358</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419194</v>
+        <v>929.9084159419187</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.911753105989</v>
+        <v>1217.911753105988</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936004</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.071556543468</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q26" t="n">
         <v>1785.188566519004</v>
@@ -6251,10 +6251,10 @@
         <v>1803.710490556108</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.617585787406</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U26" t="n">
         <v>1742.012430054896</v>
@@ -6263,7 +6263,7 @@
         <v>1632.962733546947</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.72447116363</v>
+        <v>1506.724471163629</v>
       </c>
       <c r="X26" t="n">
         <v>1358.378885074313</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>670.5956143276048</v>
+        <v>68.12020852786753</v>
       </c>
       <c r="C27" t="n">
-        <v>530.8452462114319</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D27" t="n">
-        <v>370.0651299724636</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5019260938781</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L27" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6175206836086</v>
+        <v>376.6175206836085</v>
       </c>
       <c r="N27" t="n">
-        <v>582.9918519763009</v>
+        <v>582.9918519763008</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0369642505273</v>
+        <v>716.0369642505271</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="Q27" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="R27" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="S27" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="T27" t="n">
-        <v>792.4900373537</v>
+        <v>798.6930785541961</v>
       </c>
       <c r="U27" t="n">
-        <v>767.937400995059</v>
+        <v>559.0691451589058</v>
       </c>
       <c r="V27" t="n">
-        <v>739.9289799353422</v>
+        <v>315.9894270625399</v>
       </c>
       <c r="W27" t="n">
-        <v>685.6017077022826</v>
+        <v>261.6621548294804</v>
       </c>
       <c r="X27" t="n">
-        <v>681.1650103556281</v>
+        <v>257.2254574828258</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.5956143276048</v>
+        <v>246.6560614548026</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="M28" t="n">
-        <v>36.07420981112217</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="N28" t="n">
-        <v>36.07420981112217</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="O28" t="n">
-        <v>210.4309609867056</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="P28" t="n">
         <v>270.2039500901372</v>
@@ -6418,16 +6418,16 @@
         <v>160.1127090344208</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096629</v>
+        <v>49.42730081096628</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868357</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.508541979649</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686429</v>
+        <v>885.8369123686422</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666785</v>
+        <v>759.7242097666779</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986446</v>
+        <v>599.5642824986439</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019468</v>
+        <v>407.363610201946</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336805</v>
+        <v>199.3768190336798</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070366</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J29" t="n">
         <v>171.7479657778252</v>
@@ -6476,7 +6476,7 @@
         <v>1217.911753105989</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.702835936004</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P29" t="n">
         <v>1662.071556543468</v>
@@ -6494,19 +6494,19 @@
         <v>1779.617585787406</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054897</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546948</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.724471163631</v>
+        <v>1506.72447116363</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074314</v>
+        <v>1358.378885074313</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.303144314549</v>
+        <v>1187.303144314548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.91716732737154</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="C30" t="n">
-        <v>36.07420981112217</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="D30" t="n">
-        <v>36.07420981112217</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07420981112217</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L30" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6175206836086</v>
+        <v>376.6175206836085</v>
       </c>
       <c r="N30" t="n">
-        <v>582.9918519763009</v>
+        <v>582.9918519763008</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0369642505273</v>
+        <v>716.0369642505271</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="Q30" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="R30" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="S30" t="n">
-        <v>794.5378533682771</v>
+        <v>750.5867592078484</v>
       </c>
       <c r="T30" t="n">
-        <v>792.4900373537</v>
+        <v>748.5389431932714</v>
       </c>
       <c r="U30" t="n">
-        <v>767.937400995059</v>
+        <v>723.9863068346303</v>
       </c>
       <c r="V30" t="n">
-        <v>739.9289799353422</v>
+        <v>480.9065887382645</v>
       </c>
       <c r="W30" t="n">
-        <v>685.6017077022826</v>
+        <v>211.5080194685558</v>
       </c>
       <c r="X30" t="n">
-        <v>466.093713318979</v>
+        <v>207.0713221219013</v>
       </c>
       <c r="Y30" t="n">
-        <v>240.4530202543066</v>
+        <v>196.5019260938781</v>
       </c>
     </row>
     <row r="31">
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="L31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="M31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="N31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="O31" t="n">
-        <v>175.3520970651602</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="P31" t="n">
-        <v>175.3520970651602</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.5952678013792</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="R31" t="n">
         <v>270.2039500901372</v>
@@ -6655,16 +6655,16 @@
         <v>160.1127090344208</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W31" t="n">
         <v>49.42730081096629</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868357</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686419</v>
+        <v>885.8369123686415</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666776</v>
+        <v>759.7242097666772</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986438</v>
+        <v>599.5642824986434</v>
       </c>
       <c r="F32" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019456</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336797</v>
+        <v>199.3768190336793</v>
       </c>
       <c r="H32" t="n">
         <v>64.03178362070287</v>
@@ -6698,19 +6698,19 @@
         <v>36.07420981112216</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778249</v>
+        <v>171.7479657778254</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613045</v>
+        <v>377.222566061305</v>
       </c>
       <c r="L32" t="n">
-        <v>636.401073538136</v>
+        <v>636.4010735381364</v>
       </c>
       <c r="M32" t="n">
-        <v>929.908415941919</v>
+        <v>929.9084159419194</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O32" t="n">
         <v>1464.702835936003</v>
@@ -6728,7 +6728,7 @@
         <v>1789.212139823152</v>
       </c>
       <c r="T32" t="n">
-        <v>1779.617585787406</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U32" t="n">
         <v>1742.012430054896</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>276.9884643640206</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C33" t="n">
-        <v>87.57619009698433</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D33" t="n">
-        <v>87.57619009698433</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E33" t="n">
         <v>36.07420981112216</v>
@@ -6780,49 +6780,49 @@
         <v>36.07420981112216</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L33" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M33" t="n">
-        <v>376.6175206836086</v>
+        <v>376.6175206836085</v>
       </c>
       <c r="N33" t="n">
-        <v>582.9918519763009</v>
+        <v>582.9918519763008</v>
       </c>
       <c r="O33" t="n">
-        <v>716.0369642505273</v>
+        <v>716.0369642505271</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="Q33" t="n">
-        <v>794.5378533682771</v>
+        <v>794.537853368277</v>
       </c>
       <c r="R33" t="n">
-        <v>794.5378533682771</v>
+        <v>783.5780261062581</v>
       </c>
       <c r="S33" t="n">
-        <v>794.5378533682771</v>
+        <v>590.1590429250926</v>
       </c>
       <c r="T33" t="n">
-        <v>792.4900373537</v>
+        <v>588.1112269105156</v>
       </c>
       <c r="U33" t="n">
-        <v>767.937400995059</v>
+        <v>348.4872935152254</v>
       </c>
       <c r="V33" t="n">
-        <v>739.9289799353422</v>
+        <v>320.4788724555086</v>
       </c>
       <c r="W33" t="n">
-        <v>685.6017077022826</v>
+        <v>266.151600222449</v>
       </c>
       <c r="X33" t="n">
-        <v>681.1650103556281</v>
+        <v>261.7149028757945</v>
       </c>
       <c r="Y33" t="n">
-        <v>455.5243172909557</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="34">
@@ -6862,22 +6862,22 @@
         <v>36.07420981112216</v>
       </c>
       <c r="L34" t="n">
-        <v>36.07420981112216</v>
+        <v>86.23851662579574</v>
       </c>
       <c r="M34" t="n">
-        <v>36.07420981112216</v>
+        <v>86.23851662579574</v>
       </c>
       <c r="N34" t="n">
-        <v>36.07420981112216</v>
+        <v>86.23851662579574</v>
       </c>
       <c r="O34" t="n">
-        <v>36.07420981112216</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="P34" t="n">
-        <v>189.544620745876</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901372</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="R34" t="n">
         <v>270.2039500901372</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561335</v>
+        <v>772.2454280561333</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457954</v>
+        <v>669.3219062457952</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444994</v>
+        <v>578.9573114444992</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771338</v>
+        <v>454.5454919771336</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811042</v>
+        <v>298.092927481104</v>
       </c>
       <c r="G35" t="n">
         <v>125.8542441135062</v>
@@ -6932,37 +6932,37 @@
         <v>26.25731650119761</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586254</v>
+        <v>33.89281886586253</v>
       </c>
       <c r="J35" t="n">
         <v>204.6032952880005</v>
       </c>
       <c r="K35" t="n">
-        <v>445.1146160269151</v>
+        <v>256.6812406498925</v>
       </c>
       <c r="L35" t="n">
-        <v>626.3603964053987</v>
+        <v>550.8964685821588</v>
       </c>
       <c r="M35" t="n">
-        <v>709.0763605835618</v>
+        <v>633.612432760322</v>
       </c>
       <c r="N35" t="n">
-        <v>786.2883195220113</v>
+        <v>956.6524903798263</v>
       </c>
       <c r="O35" t="n">
-        <v>822.2880241264064</v>
+        <v>1238.480293665276</v>
       </c>
       <c r="P35" t="n">
-        <v>1054.693465189305</v>
+        <v>1238.480293665276</v>
       </c>
       <c r="Q35" t="n">
-        <v>1212.847195620277</v>
+        <v>1238.480293665276</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112816</v>
+        <v>1292.038938157815</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.865825059881</v>
       </c>
       <c r="T35" t="n">
         <v>1312.865825059881</v>
@@ -6977,10 +6977,10 @@
         <v>1147.21703383811</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549462</v>
+        <v>1034.619555549461</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903651</v>
+        <v>899.2919225903648</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.25731650119761</v>
+        <v>136.1660475293933</v>
       </c>
       <c r="C36" t="n">
         <v>26.25731650119761</v>
@@ -7017,13 +7017,13 @@
         <v>26.25731650119761</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276497</v>
+        <v>65.13292162276495</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
       </c>
       <c r="M36" t="n">
-        <v>366.8006273736841</v>
+        <v>366.800627373684</v>
       </c>
       <c r="N36" t="n">
         <v>573.1749586663764</v>
@@ -7035,31 +7035,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="R36" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="S36" t="n">
-        <v>784.7209600583525</v>
+        <v>597.5050180776832</v>
       </c>
       <c r="T36" t="n">
-        <v>784.7209600583525</v>
+        <v>380.385905026457</v>
       </c>
       <c r="U36" t="n">
-        <v>545.0970266630623</v>
+        <v>380.385905026457</v>
       </c>
       <c r="V36" t="n">
-        <v>302.0173085666963</v>
+        <v>380.385905026457</v>
       </c>
       <c r="W36" t="n">
-        <v>245.7653108845012</v>
+        <v>361.8067405940657</v>
       </c>
       <c r="X36" t="n">
-        <v>26.25731650119761</v>
+        <v>361.8067405940657</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.25731650119761</v>
+        <v>136.1660475293933</v>
       </c>
     </row>
     <row r="37">
@@ -7075,49 +7075,49 @@
         <v>26.25731650119761</v>
       </c>
       <c r="D37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="E37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="F37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="G37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="H37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="I37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="K37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="L37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="M37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="N37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="O37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="P37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="R37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="S37" t="n">
         <v>109.433661472441</v>
@@ -7154,13 +7154,13 @@
         <v>669.321906245795</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444991</v>
+        <v>578.9573114444989</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771335</v>
+        <v>454.5454919771333</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811039</v>
+        <v>298.0929274811037</v>
       </c>
       <c r="G38" t="n">
         <v>125.8542441135062</v>
@@ -7169,31 +7169,31 @@
         <v>26.25731650119761</v>
       </c>
       <c r="I38" t="n">
-        <v>33.89281886586254</v>
+        <v>33.89281886586253</v>
       </c>
       <c r="J38" t="n">
         <v>204.6032952880005</v>
       </c>
       <c r="K38" t="n">
-        <v>332.1451684731322</v>
+        <v>445.114616026915</v>
       </c>
       <c r="L38" t="n">
-        <v>380.5322977243438</v>
+        <v>493.5017452781267</v>
       </c>
       <c r="M38" t="n">
-        <v>463.248261902507</v>
+        <v>576.2177094562899</v>
       </c>
       <c r="N38" t="n">
-        <v>540.4602208409565</v>
+        <v>653.4296683947393</v>
       </c>
       <c r="O38" t="n">
-        <v>822.2880241264064</v>
+        <v>875.8466686189455</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.693465189305</v>
+        <v>1108.252109681845</v>
       </c>
       <c r="Q38" t="n">
-        <v>1212.847195620277</v>
+        <v>1266.405840112816</v>
       </c>
       <c r="R38" t="n">
         <v>1266.405840112816</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>710.4406271685436</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="C39" t="n">
-        <v>521.0283529015073</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="D39" t="n">
-        <v>360.2482366625391</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="E39" t="n">
-        <v>186.6850327839535</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="F39" t="n">
         <v>26.25731650119761</v>
@@ -7254,13 +7254,13 @@
         <v>26.25731650119761</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276497</v>
+        <v>65.13292162276495</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
       </c>
       <c r="M39" t="n">
-        <v>366.8006273736841</v>
+        <v>366.800627373684</v>
       </c>
       <c r="N39" t="n">
         <v>573.1749586663764</v>
@@ -7275,28 +7275,28 @@
         <v>784.7209600583525</v>
       </c>
       <c r="R39" t="n">
-        <v>784.7209600583525</v>
+        <v>697.3873918933482</v>
       </c>
       <c r="S39" t="n">
-        <v>784.7209600583525</v>
+        <v>503.9684087121827</v>
       </c>
       <c r="T39" t="n">
-        <v>784.7209600583525</v>
+        <v>503.9684087121827</v>
       </c>
       <c r="U39" t="n">
-        <v>784.7209600583525</v>
+        <v>264.3444753168926</v>
       </c>
       <c r="V39" t="n">
-        <v>784.7209600583525</v>
+        <v>264.3444753168926</v>
       </c>
       <c r="W39" t="n">
-        <v>766.1417956259612</v>
+        <v>245.7653108845012</v>
       </c>
       <c r="X39" t="n">
-        <v>766.1417956259612</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="Y39" t="n">
-        <v>766.1417956259612</v>
+        <v>26.25731650119761</v>
       </c>
     </row>
     <row r="40">
@@ -7324,37 +7324,37 @@
         <v>26.25731650119761</v>
       </c>
       <c r="H40" t="n">
-        <v>26.25731650119761</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25731650119761</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="J40" t="n">
-        <v>26.25731650119761</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="K40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="L40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="M40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="N40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="O40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="P40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="R40" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139527</v>
       </c>
       <c r="S40" t="n">
         <v>109.433661472441</v>
@@ -7409,31 +7409,31 @@
         <v>28.16520237656599</v>
       </c>
       <c r="J41" t="n">
-        <v>191.240176434039</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1159948082886</v>
+        <v>261.0410207508156</v>
       </c>
       <c r="L41" t="n">
-        <v>710.6957203758901</v>
+        <v>521.5083325999973</v>
       </c>
       <c r="M41" t="n">
-        <v>1031.604280870443</v>
+        <v>842.4168930945502</v>
       </c>
       <c r="N41" t="n">
-        <v>1108.816239808893</v>
+        <v>1157.82144834939</v>
       </c>
       <c r="O41" t="n">
-        <v>1144.815944413288</v>
+        <v>1193.821152953785</v>
       </c>
       <c r="P41" t="n">
-        <v>1180.629768416384</v>
+        <v>1193.821152953785</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.14799648269</v>
+        <v>1344.339381020091</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.071138610564</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="S41" t="n">
         <v>1390.262523147965</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="C42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="D42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="E42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="F42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="G42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="H42" t="n">
-        <v>34.52662517235615</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I42" t="n">
-        <v>34.52662517235615</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J42" t="n">
         <v>28.16520237656599</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813335</v>
+        <v>67.04080749813333</v>
       </c>
       <c r="L42" t="n">
         <v>185.6003984663378</v>
@@ -7500,40 +7500,40 @@
         <v>368.7085132490524</v>
       </c>
       <c r="N42" t="n">
-        <v>575.0828445417447</v>
+        <v>575.0828445417446</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1279568159711</v>
+        <v>708.1279568159709</v>
       </c>
       <c r="P42" t="n">
-        <v>792.8318871342171</v>
+        <v>792.8318871342169</v>
       </c>
       <c r="Q42" t="n">
-        <v>786.628845933721</v>
+        <v>792.8318871342169</v>
       </c>
       <c r="R42" t="n">
-        <v>786.628845933721</v>
+        <v>792.8318871342169</v>
       </c>
       <c r="S42" t="n">
-        <v>786.628845933721</v>
+        <v>599.4129039530515</v>
       </c>
       <c r="T42" t="n">
-        <v>786.628845933721</v>
+        <v>382.2937909018252</v>
       </c>
       <c r="U42" t="n">
-        <v>547.0049125384307</v>
+        <v>382.2937909018252</v>
       </c>
       <c r="V42" t="n">
-        <v>303.9251944420648</v>
+        <v>382.2429436516891</v>
       </c>
       <c r="W42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="X42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.52662517235615</v>
+        <v>112.8443743819805</v>
       </c>
     </row>
     <row r="43">
@@ -7573,28 +7573,28 @@
         <v>28.16520237656599</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592356</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592356</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592356</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592356</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4786083064314</v>
+        <v>109.5982426592356</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4786083064314</v>
+        <v>114.7897175256164</v>
       </c>
       <c r="T43" t="n">
         <v>131.4786083064314</v>
@@ -7646,31 +7646,31 @@
         <v>28.16520237656599</v>
       </c>
       <c r="J44" t="n">
-        <v>191.240176434039</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K44" t="n">
-        <v>235.1598801131503</v>
+        <v>261.0410207508156</v>
       </c>
       <c r="L44" t="n">
-        <v>283.547009364362</v>
+        <v>547.6207463184171</v>
       </c>
       <c r="M44" t="n">
-        <v>366.2629735425252</v>
+        <v>868.52930681297</v>
       </c>
       <c r="N44" t="n">
-        <v>681.6675287973645</v>
+        <v>1116.07022222718</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8598297181495</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.629768416384</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.14799648269</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.071138610564</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="S44" t="n">
         <v>1390.262523147965</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>712.348513043912</v>
+        <v>353.4843638961329</v>
       </c>
       <c r="C45" t="n">
-        <v>522.9362387768757</v>
+        <v>164.0720896290966</v>
       </c>
       <c r="D45" t="n">
-        <v>362.1561225379074</v>
+        <v>164.0720896290966</v>
       </c>
       <c r="E45" t="n">
-        <v>188.5929186593219</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F45" t="n">
         <v>28.16520237656599</v>
@@ -7728,7 +7728,7 @@
         <v>28.16520237656599</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813335</v>
+        <v>67.04080749813333</v>
       </c>
       <c r="L45" t="n">
         <v>185.6003984663378</v>
@@ -7737,40 +7737,40 @@
         <v>368.7085132490524</v>
       </c>
       <c r="N45" t="n">
-        <v>575.0828445417447</v>
+        <v>575.0828445417446</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159711</v>
+        <v>708.1279568159709</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8318871342171</v>
+        <v>792.8318871342169</v>
       </c>
       <c r="Q45" t="n">
-        <v>786.628845933721</v>
+        <v>792.8318871342169</v>
       </c>
       <c r="R45" t="n">
-        <v>786.628845933721</v>
+        <v>792.8318871342169</v>
       </c>
       <c r="S45" t="n">
-        <v>786.628845933721</v>
+        <v>599.4129039530515</v>
       </c>
       <c r="T45" t="n">
-        <v>786.628845933721</v>
+        <v>599.4129039530515</v>
       </c>
       <c r="U45" t="n">
-        <v>786.628845933721</v>
+        <v>599.4129039530515</v>
       </c>
       <c r="V45" t="n">
-        <v>786.577998683585</v>
+        <v>599.3620567029154</v>
       </c>
       <c r="W45" t="n">
-        <v>760.2083002601061</v>
+        <v>572.9923582794365</v>
       </c>
       <c r="X45" t="n">
-        <v>760.2083002601061</v>
+        <v>353.4843638961329</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.2083002601061</v>
+        <v>353.4843638961329</v>
       </c>
     </row>
     <row r="46">
@@ -7813,7 +7813,7 @@
         <v>28.16520237656599</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="N46" t="n">
         <v>131.4786083064314</v>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>151.9668072660657</v>
+        <v>239.530355984345</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510105</v>
+        <v>220.7454341052047</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681792</v>
+        <v>120.8337805941225</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>164.2987994584344</v>
       </c>
       <c r="L15" t="n">
         <v>120.5473811624956</v>
       </c>
       <c r="M15" t="n">
-        <v>239.530355984345</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N15" t="n">
-        <v>217.7914303252938</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O15" t="n">
-        <v>243.5449469681792</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9246,16 +9246,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>236.1838734108358</v>
       </c>
       <c r="M18" t="n">
-        <v>239.530355984345</v>
+        <v>116.8191896102882</v>
       </c>
       <c r="N18" t="n">
-        <v>220.7454341052048</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O18" t="n">
-        <v>120.8337805941224</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M21" t="n">
-        <v>239.530355984345</v>
+        <v>232.4556818586285</v>
       </c>
       <c r="N21" t="n">
-        <v>102.1549380769536</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O21" t="n">
-        <v>239.4242766223736</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9720,16 +9720,16 @@
         <v>132.1051855825678</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>238.3005206123482</v>
       </c>
       <c r="M24" t="n">
-        <v>239.530355984345</v>
+        <v>239.5303559843452</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510104</v>
+        <v>224.8661044510106</v>
       </c>
       <c r="O24" t="n">
-        <v>241.5409238238858</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P24" t="n">
         <v>120.8043485046934</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.16450411638684</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C11" t="n">
-        <v>155.9939274937891</v>
+        <v>33.28276111973234</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548376</v>
+        <v>20.84942338078081</v>
       </c>
       <c r="E11" t="n">
-        <v>54.55617580018966</v>
+        <v>176.840363161156</v>
       </c>
       <c r="F11" t="n">
         <v>208.9876797526238</v>
@@ -23273,10 +23273,10 @@
         <v>224.6159374354765</v>
       </c>
       <c r="H11" t="n">
-        <v>29.98943286368323</v>
+        <v>29.98943286368325</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037784</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.0623814045185</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428239</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>55.93811835407747</v>
@@ -23324,7 +23324,7 @@
         <v>165.5711444073164</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.99000218879104</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.16450411638689</v>
+        <v>179.8756704904437</v>
       </c>
       <c r="C14" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D14" t="n">
-        <v>143.5605897548377</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E14" t="n">
-        <v>110.067315141177</v>
+        <v>177.2673421742465</v>
       </c>
       <c r="F14" t="n">
-        <v>208.9876797526238</v>
+        <v>86.27651337856703</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6159374354766</v>
+        <v>162.9189543435852</v>
       </c>
       <c r="H14" t="n">
-        <v>152.7005992377401</v>
+        <v>29.98943286368329</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>33.06238140451853</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.20762267428242</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.93811835407752</v>
       </c>
       <c r="V14" t="n">
-        <v>3.957047347705583</v>
+        <v>126.6682137217624</v>
       </c>
       <c r="W14" t="n">
-        <v>143.6848939383773</v>
+        <v>143.6848939383772</v>
       </c>
       <c r="X14" t="n">
         <v>165.5711444073165</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310603</v>
+        <v>65.36283115700344</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88193.19951764593</v>
+        <v>88193.19951764595</v>
       </c>
       <c r="C2" t="n">
-        <v>88193.19951764593</v>
+        <v>88193.19951764595</v>
       </c>
       <c r="D2" t="n">
-        <v>88193.19951764595</v>
+        <v>88193.19951764596</v>
       </c>
       <c r="E2" t="n">
-        <v>75999.00890204786</v>
+        <v>75999.00890204789</v>
       </c>
       <c r="F2" t="n">
-        <v>75999.00890204786</v>
+        <v>75999.00890204782</v>
       </c>
       <c r="G2" t="n">
         <v>88371.85488585365</v>
       </c>
       <c r="H2" t="n">
-        <v>88371.85488585367</v>
+        <v>88371.85488585368</v>
       </c>
       <c r="I2" t="n">
         <v>88371.85488585365</v>
       </c>
       <c r="J2" t="n">
-        <v>88371.85488585358</v>
+        <v>88371.85488585359</v>
       </c>
       <c r="K2" t="n">
         <v>88371.85488585358</v>
       </c>
       <c r="L2" t="n">
-        <v>88371.85488585358</v>
+        <v>88371.85488585357</v>
       </c>
       <c r="M2" t="n">
-        <v>88371.85488585373</v>
+        <v>88371.85488585368</v>
       </c>
       <c r="N2" t="n">
-        <v>88371.85488585375</v>
+        <v>88371.8548858537</v>
       </c>
       <c r="O2" t="n">
+        <v>88371.85488585362</v>
+      </c>
+      <c r="P2" t="n">
         <v>88371.85488585365</v>
-      </c>
-      <c r="P2" t="n">
-        <v>88371.85488585367</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.9947649911</v>
+        <v>275420.994764991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="M3" t="n">
         <v>28312.50137812927</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053824</v>
+        <v>68757.72909053828</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>409186.2663395518</v>
       </c>
       <c r="J4" t="n">
-        <v>407456.4004199021</v>
+        <v>407456.400419902</v>
       </c>
       <c r="K4" t="n">
         <v>407456.400419902</v>
@@ -26448,7 +26448,7 @@
         <v>407456.400419902</v>
       </c>
       <c r="M4" t="n">
-        <v>406912.0322437917</v>
+        <v>406912.0322437918</v>
       </c>
       <c r="N4" t="n">
         <v>406912.0322437918</v>
@@ -26491,7 +26491,7 @@
         <v>36680.62957505706</v>
       </c>
       <c r="J5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="K5" t="n">
         <v>47579.79330930412</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-391534.0453309094</v>
+        <v>-391538.5117151146</v>
       </c>
       <c r="C6" t="n">
-        <v>-391534.0453309093</v>
+        <v>-391538.5117151145</v>
       </c>
       <c r="D6" t="n">
-        <v>-391534.0453309094</v>
+        <v>-391538.5117151145</v>
       </c>
       <c r="E6" t="n">
-        <v>-564156.5579366165</v>
+        <v>-564465.8790862117</v>
       </c>
       <c r="F6" t="n">
-        <v>-288735.5631716254</v>
+        <v>-289044.8843212206</v>
       </c>
       <c r="G6" t="n">
-        <v>-458642.8593177177</v>
+        <v>-458642.8593177176</v>
       </c>
       <c r="H6" t="n">
-        <v>-357495.0410287552</v>
+        <v>-357495.0410287551</v>
       </c>
       <c r="I6" t="n">
         <v>-357495.0410287552</v>
       </c>
       <c r="J6" t="n">
-        <v>-521728.8542904081</v>
+        <v>-521728.854290408</v>
       </c>
       <c r="K6" t="n">
         <v>-366664.3388433525</v>
@@ -26552,7 +26552,7 @@
         <v>-467812.157132315</v>
       </c>
       <c r="M6" t="n">
-        <v>-389946.8877277762</v>
+        <v>-389946.8877277763</v>
       </c>
       <c r="N6" t="n">
         <v>-361634.386349647</v>
@@ -26695,16 +26695,16 @@
         <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="J2" t="n">
         <v>212.9205840662826</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="K3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="L3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
     </row>
     <row r="4">
@@ -26808,10 +26808,10 @@
         <v>122.7111663740568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="J4" t="n">
-        <v>450.927622639027</v>
+        <v>450.9276226390269</v>
       </c>
       <c r="K4" t="n">
         <v>450.927622639027</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507956</v>
+        <v>86.48581120507961</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
         <v>35.39062672266158</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390287</v>
+        <v>78.77318255390293</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.21645626497</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507956</v>
+        <v>86.48581120507961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,13 +28111,13 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>194.2115698873897</v>
+        <v>75.87638612011799</v>
       </c>
       <c r="K11" t="n">
-        <v>5.370482769838588</v>
+        <v>5.37048276983861</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>47.10462542396948</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,10 +28126,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>86.3478283898193</v>
       </c>
       <c r="P11" t="n">
-        <v>28.67551006485614</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q11" t="n">
         <v>194.2115698873897</v>
@@ -28190,7 +28190,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,28 +28211,28 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S12" t="n">
-        <v>68.77362697529702</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T12" t="n">
-        <v>133.7391742123198</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>114.5165276872805</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2115698873897</v>
+        <v>117.9377545413455</v>
       </c>
       <c r="W12" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="X12" t="n">
-        <v>194.2115698873897</v>
+        <v>108.9198346927267</v>
       </c>
       <c r="Y12" t="n">
         <v>194.2115698873897</v>
@@ -28251,10 +28251,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>194.2115698873897</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>194.2115698873897</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>194.2115698873897</v>
@@ -28272,25 +28272,25 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346797</v>
+        <v>189.1853049475248</v>
       </c>
       <c r="L13" t="n">
-        <v>31.44053041360786</v>
+        <v>154.1516967876647</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46691421597134</v>
+        <v>28.75263104112093</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O13" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P13" t="n">
-        <v>138.6484695359154</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.2115698873897</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R13" t="n">
         <v>194.2115698873897</v>
@@ -28324,40 +28324,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J14" t="n">
-        <v>194.2115698873896</v>
+        <v>153.1095881116472</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838588</v>
+        <v>5.37048276983861</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>39.15968740621526</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>28.6755100648562</v>
+        <v>136.2694063923959</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.2115698873896</v>
+        <v>88.55996792937719</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R15" t="n">
-        <v>11.65432337074029</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>131.0123976742843</v>
+        <v>68.77362697529703</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2115698873896</v>
+        <v>175.2719653426061</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X15" t="n">
-        <v>194.2115698873896</v>
+        <v>94.60174806541382</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="16">
@@ -28494,64 +28494,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>194.2115698873896</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959906883239</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H16" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7090929584652</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J16" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L16" t="n">
         <v>154.1516967876647</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926581</v>
+        <v>138.4992047233226</v>
       </c>
       <c r="O16" t="n">
-        <v>48.00337971473298</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P16" t="n">
-        <v>180.6111333345275</v>
+        <v>62.45231532657336</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.2115698873896</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I17" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87638612011797</v>
+        <v>75.87638612011799</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838588</v>
+        <v>128.0816491438954</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>39.15968740621526</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>44.71928865845126</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>32.51391333307795</v>
       </c>
       <c r="P17" t="n">
-        <v>13.55824001833905</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55996792937718</v>
+        <v>88.55996792937719</v>
       </c>
       <c r="R17" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S17" t="n">
-        <v>297.6542023696632</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T17" t="n">
-        <v>320.6463427485928</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>54.03932802360895</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>26.02773148019025</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H18" t="n">
         <v>125.6804106468432</v>
@@ -28664,7 +28664,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3654897447971</v>
+        <v>26.28149440252787</v>
       </c>
       <c r="S18" t="n">
-        <v>68.77362697529702</v>
+        <v>68.77362697529705</v>
       </c>
       <c r="T18" t="n">
         <v>214.947921920714</v>
@@ -28700,16 +28700,16 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
-        <v>117.9377545413454</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>167.3059497888912</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599688</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L19" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O19" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8163712014149</v>
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I20" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87638612011797</v>
+        <v>75.87638612011799</v>
       </c>
       <c r="K20" t="n">
-        <v>5.370482769838588</v>
+        <v>84.29143191030082</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>73.83527824151979</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,37 +28837,37 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>86.3478283898193</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833905</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937718</v>
+        <v>88.55996792937719</v>
       </c>
       <c r="R20" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
-        <v>297.6542023696632</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>70.03093300200463</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28898,10 +28898,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529705</v>
       </c>
       <c r="T21" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U21" t="n">
-        <v>114.5165276872805</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V21" t="n">
-        <v>117.9377545413454</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>143.9934172029548</v>
       </c>
       <c r="X21" t="n">
-        <v>167.3059497888912</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,22 +28983,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O22" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8163712014149</v>
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I23" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87638612011797</v>
+        <v>170.6485091432743</v>
       </c>
       <c r="K23" t="n">
-        <v>5.370482769838588</v>
+        <v>5.37048276983861</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>73.8352782415199</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833905</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q23" t="n">
-        <v>111.580465870437</v>
+        <v>88.55996792937719</v>
       </c>
       <c r="R23" t="n">
-        <v>316.9227362614464</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S23" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
         <v>222.4191925616721</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1496882414672</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="V23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>74.80750984388773</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29138,7 +29138,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29165,22 +29165,22 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S24" t="n">
-        <v>68.77362697529702</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T24" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U24" t="n">
-        <v>114.5165276872805</v>
+        <v>114.5165276872804</v>
       </c>
       <c r="V24" t="n">
-        <v>117.9377545413454</v>
+        <v>117.9377545413453</v>
       </c>
       <c r="W24" t="n">
-        <v>216.6976189264321</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>94.60174806541369</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L25" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O25" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8163712014149</v>
@@ -29305,7 +29305,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662829</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N26" t="n">
         <v>212.9205840662826</v>
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>49.16528708935473</v>
+        <v>155.792612794788</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388978542471</v>
@@ -29375,7 +29375,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R27" t="n">
         <v>134.3654897447971</v>
@@ -29408,10 +29408,10 @@
         <v>212.9205840662826</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>212.9205840662826</v>
@@ -29457,22 +29457,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597134</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78803834926581</v>
+        <v>63.82905564947482</v>
       </c>
       <c r="O28" t="n">
-        <v>212.9205840662826</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P28" t="n">
-        <v>118.2767236306036</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8163712014149</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>161.933623583279</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7388978542471</v>
@@ -29612,7 +29612,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4847933493538</v>
+        <v>141.8321993420384</v>
       </c>
       <c r="T30" t="n">
         <v>212.9205840662826</v>
@@ -29648,16 +29648,16 @@
         <v>212.9205840662826</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.9205840662826</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29694,28 +29694,28 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L31" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O31" t="n">
-        <v>177.4873881859337</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89996696047066</v>
+        <v>208.2904412461232</v>
       </c>
       <c r="Q31" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="R31" t="n">
-        <v>212.9205840662826</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S31" t="n">
         <v>212.9205840662826</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>120.8406113567961</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29849,7 +29849,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3654897447971</v>
+        <v>123.5152607553984</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>212.9205840662826</v>
@@ -29931,28 +29931,28 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L34" t="n">
-        <v>31.44053041360786</v>
+        <v>82.11154739812665</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O34" t="n">
-        <v>36.80265358589529</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P34" t="n">
+        <v>57.89996696047067</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>126.8163712014149</v>
+      </c>
+      <c r="R34" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>208.2904412461232</v>
-      </c>
-      <c r="R34" t="n">
-        <v>203.2148443806685</v>
       </c>
       <c r="S34" t="n">
         <v>212.9205840662826</v>
@@ -30010,25 +30010,25 @@
         <v>248.3112107889442</v>
       </c>
       <c r="K35" t="n">
+        <v>57.97446798387088</v>
+      </c>
+      <c r="L35" t="n">
         <v>248.3112107889442</v>
       </c>
-      <c r="L35" t="n">
-        <v>134.2006577043151</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="P35" t="n">
-        <v>248.3112107889442</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.3112107889442</v>
+        <v>88.55996792937719</v>
       </c>
       <c r="R35" t="n">
         <v>248.3112107889442</v>
@@ -30037,7 +30037,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="T35" t="n">
-        <v>248.3112107889442</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U35" t="n">
         <v>248.3112107889442</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>78.70850780645216</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30086,7 +30086,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,31 +30107,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R36" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>211.0151058716385</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>229.1991603226737</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30168,22 +30168,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L37" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O37" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89996696047066</v>
+        <v>128.9599343748118</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8163712014149</v>
@@ -30192,7 +30192,7 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3546681313223</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="T37" t="n">
         <v>223.7411167026008</v>
@@ -30247,7 +30247,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="K38" t="n">
-        <v>134.200657704315</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>248.3112107889442</v>
+        <v>188.3002986058698</v>
       </c>
       <c r="P38" t="n">
         <v>248.3112107889442</v>
@@ -30268,7 +30268,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="R38" t="n">
-        <v>248.3112107889442</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S38" t="n">
         <v>248.3112107889442</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>121.6063376248223</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388978542471</v>
@@ -30323,7 +30323,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3654897447971</v>
+        <v>47.90525726144284</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -30365,7 +30365,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30396,7 +30396,7 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7818614221724</v>
+        <v>236.8418288365135</v>
       </c>
       <c r="I40" t="n">
         <v>164.7090929584652</v>
@@ -30405,22 +30405,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
-        <v>150.490648645431</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L40" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O40" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8163712014149</v>
@@ -30429,7 +30429,7 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S40" t="n">
-        <v>235.3546681313223</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="T40" t="n">
         <v>223.7411167026008</v>
@@ -30481,25 +30481,25 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5985821377675</v>
+        <v>75.87638612011799</v>
       </c>
       <c r="K41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5985821377675</v>
+        <v>214.2224066646162</v>
       </c>
       <c r="M41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>49.7338198194461</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5985821377675</v>
@@ -30508,7 +30508,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="S41" t="n">
-        <v>240.5985821377675</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T41" t="n">
         <v>240.5985821377675</v>
@@ -30554,13 +30554,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6804106468432</v>
+        <v>41.84803036148291</v>
       </c>
       <c r="I42" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
-        <v>45.6382113353662</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,22 +30581,22 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R42" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30642,22 +30642,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L43" t="n">
-        <v>135.7975061003406</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78803834926581</v>
+        <v>98.04363459438659</v>
       </c>
       <c r="O43" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q43" t="n">
         <v>126.8163712014149</v>
@@ -30666,10 +30666,10 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3546681313223</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7411167026008</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U43" t="n">
         <v>240.5985821377675</v>
@@ -30718,34 +30718,34 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J44" t="n">
+        <v>75.87638612011799</v>
+      </c>
+      <c r="K44" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="K44" t="n">
-        <v>49.73381981944597</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="N44" t="n">
-        <v>240.5985821377675</v>
+        <v>172.0494509856169</v>
       </c>
       <c r="O44" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5985821377675</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5985821377675</v>
+        <v>88.55996792937719</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5985821377675</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5985821377675</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T44" t="n">
         <v>240.5985821377675</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>129.3693050536336</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>37.27975345979436</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7388978542471</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.141010788491251</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.947921920714</v>
@@ -30839,7 +30839,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,22 +30879,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360787</v>
       </c>
       <c r="M46" t="n">
-        <v>128.8238899027041</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926581</v>
+        <v>120.1450140359985</v>
       </c>
       <c r="O46" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047067</v>
       </c>
       <c r="Q46" t="n">
         <v>126.8163712014149</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I11" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J11" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L11" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M11" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O11" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T11" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S12" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I13" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J13" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q13" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U13" t="n">
         <v>0.0102122421611504</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I14" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J14" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L14" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M14" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O14" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T14" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S15" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I16" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J16" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q16" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U16" t="n">
         <v>0.0102122421611504</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I17" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J17" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L17" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M17" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O17" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T17" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M18" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S18" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I19" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J19" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q19" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U19" t="n">
         <v>0.0102122421611504</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I20" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J20" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L20" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M20" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O20" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T20" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M21" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S21" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I22" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J22" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q22" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U22" t="n">
         <v>0.0102122421611504</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I23" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J23" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L23" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M23" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O23" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T23" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M24" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S24" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I25" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J25" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q25" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U25" t="n">
         <v>0.0102122421611504</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I26" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J26" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L26" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M26" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O26" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T26" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M27" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S27" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I28" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J28" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q28" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U28" t="n">
         <v>0.0102122421611504</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I29" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J29" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L29" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M29" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O29" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T29" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S30" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I31" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J31" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q31" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U31" t="n">
         <v>0.0102122421611504</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H32" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I32" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J32" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L32" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M32" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N32" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O32" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R32" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S32" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T32" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I33" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L33" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M33" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N33" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O33" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P33" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S33" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I34" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J34" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q34" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R34" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S34" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U34" t="n">
         <v>0.0102122421611504</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H35" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I35" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J35" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K35" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L35" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M35" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N35" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O35" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R35" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S35" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T35" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H36" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I36" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L36" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M36" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N36" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O36" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P36" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S36" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I37" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J37" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q37" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R37" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S37" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U37" t="n">
         <v>0.0102122421611504</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H38" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I38" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J38" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K38" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L38" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M38" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N38" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O38" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R38" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S38" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T38" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H39" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I39" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L39" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M39" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N39" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O39" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P39" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S39" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I40" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J40" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q40" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R40" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S40" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U40" t="n">
         <v>0.0102122421611504</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H41" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I41" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J41" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K41" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L41" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M41" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N41" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O41" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R41" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S41" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T41" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34202,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H42" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I42" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L42" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M42" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N42" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O42" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P42" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S42" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I43" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J43" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q43" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R43" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S43" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U43" t="n">
         <v>0.0102122421611504</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455097</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638702</v>
       </c>
       <c r="I44" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J44" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093549</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892292</v>
       </c>
       <c r="L44" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722958</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448072</v>
       </c>
       <c r="O44" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604363</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796902</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983294</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T44" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964077</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243497</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954996</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615017</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895087</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58433177457412</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471301</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362481</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S45" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734739</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505127</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210904</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267514</v>
       </c>
       <c r="I46" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514249</v>
       </c>
       <c r="J46" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121109</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325032</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057558</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078602</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026105</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q46" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508301</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901135</v>
       </c>
       <c r="U46" t="n">
         <v>0.0102122421611504</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.3351837672717</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.87588813253703</v>
+        <v>95.98051355650649</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784158</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N11" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560553</v>
       </c>
       <c r="O11" t="n">
-        <v>36.3633379842375</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="P11" t="n">
-        <v>15.1172700465171</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>105.6516019580125</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L12" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M12" t="n">
-        <v>35.1476176557775</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740568</v>
+        <v>118.5904960282511</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.02891963667898</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.5354286751647</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>55.28468766894304</v>
@@ -35568,13 +35568,13 @@
         <v>74.31020798966226</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4.285716825149573</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>80.74850257544473</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597475</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.3351837672717</v>
+        <v>77.23320199152923</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253701</v>
       </c>
       <c r="M14" t="n">
-        <v>83.55147896784158</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="N14" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560553</v>
       </c>
       <c r="O14" t="n">
-        <v>36.3633379842375</v>
+        <v>36.36333798423748</v>
       </c>
       <c r="P14" t="n">
-        <v>15.11727004651715</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.6516019580124</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.26828800158319</v>
+        <v>32.19361387586657</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>122.7111663740568</v>
       </c>
       <c r="N15" t="n">
-        <v>115.6364922483402</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="O15" t="n">
         <v>122.7111663740568</v>
       </c>
       <c r="P15" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35790,19 +35790,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55.28468766894298</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.51557919906578</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.50247692892449</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.31020798966223</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="O16" t="n">
-        <v>11.2007261288377</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>122.7111663740568</v>
+        <v>4.55234836610269</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.39519868597469</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253701</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784158</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560555</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="O17" t="n">
-        <v>36.3633379842375</v>
+        <v>68.87725131731543</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.38025107775495</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.22715018692068</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>70.4966545071256</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7571625941459</v>
+        <v>115.6364922483402</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="N18" t="n">
-        <v>118.5904960282511</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>78.9209491404622</v>
       </c>
       <c r="L20" t="n">
-        <v>48.87588813253703</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="M20" t="n">
-        <v>83.55147896784158</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N20" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560553</v>
       </c>
       <c r="O20" t="n">
-        <v>36.3633379842375</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.37239145668457</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>75.23500980799108</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.4966545071256</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>115.6364922483402</v>
+      </c>
+      <c r="N21" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>118.5904960282511</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,40 +36355,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>94.77212302315633</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253703</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="M23" t="n">
-        <v>83.55147896784158</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N23" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560553</v>
       </c>
       <c r="O23" t="n">
-        <v>36.3633379842375</v>
+        <v>36.36333798423748</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.02049794105978</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.37239145668457</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.49665450712554</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7571625941459</v>
+        <v>117.7531394498526</v>
       </c>
       <c r="M24" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O24" t="n">
-        <v>120.7071432297634</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K26" t="n">
         <v>207.550101296444</v>
@@ -36601,7 +36601,7 @@
         <v>261.7964721988196</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4720630341245</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N26" t="n">
         <v>290.9124617818882</v>
@@ -36616,7 +36616,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889298</v>
+        <v>18.70901417889297</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L27" t="n">
         <v>119.7571625941459</v>
@@ -36689,7 +36689,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.4536698503113</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>48.041017300209</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1179304803873</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>60.37675667013293</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K29" t="n">
         <v>207.550101296444</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L30" t="n">
         <v>119.7571625941459</v>
@@ -36926,7 +36926,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>140.6847346000384</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>150.3904742856525</v>
       </c>
       <c r="Q31" t="n">
         <v>86.10421286486769</v>
       </c>
       <c r="R31" t="n">
-        <v>9.705739685614164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K32" t="n">
         <v>207.550101296444</v>
@@ -37090,7 +37090,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889298</v>
+        <v>18.70901417889297</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L33" t="n">
         <v>119.7571625941459</v>
@@ -37163,7 +37163,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P33" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>50.67101698451877</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,16 +37239,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1179304803873</v>
       </c>
       <c r="P34" t="n">
-        <v>155.020617105812</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.47407004470827</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.70573968561416</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176686</v>
+        <v>7.712628651176683</v>
       </c>
       <c r="J35" t="n">
         <v>172.4348246688263</v>
       </c>
       <c r="K35" t="n">
-        <v>242.9407280191056</v>
+        <v>52.60398521403227</v>
       </c>
       <c r="L35" t="n">
-        <v>183.0765458368521</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M35" t="n">
-        <v>83.55147896784158</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N35" t="n">
-        <v>77.99187771560555</v>
+        <v>326.3030885045497</v>
       </c>
       <c r="O35" t="n">
-        <v>36.3633379842375</v>
+        <v>284.6745487731817</v>
       </c>
       <c r="P35" t="n">
-        <v>234.7529707706051</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.751242859567</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155457</v>
+        <v>54.09964090155455</v>
       </c>
       <c r="S35" t="n">
         <v>21.03725949703602</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727213</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L36" t="n">
         <v>119.7571625941459</v>
@@ -37400,7 +37400,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P36" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.01651007196303</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>71.05996741434107</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.95654265762195</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176686</v>
+        <v>7.712628651176683</v>
       </c>
       <c r="J38" t="n">
         <v>172.4348246688263</v>
       </c>
       <c r="K38" t="n">
-        <v>128.8301749344764</v>
+        <v>242.9407280191056</v>
       </c>
       <c r="L38" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253701</v>
       </c>
       <c r="M38" t="n">
-        <v>83.55147896784158</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N38" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560553</v>
       </c>
       <c r="O38" t="n">
-        <v>284.6745487731817</v>
+        <v>224.6636365901072</v>
       </c>
       <c r="P38" t="n">
         <v>234.7529707706051</v>
@@ -37564,7 +37564,7 @@
         <v>159.751242859567</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155457</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>21.03725949703602</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L39" t="n">
         <v>119.7571625941459</v>
@@ -37637,7 +37637,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P39" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>71.05996741434107</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>84.01651007196303</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>12.95654265762195</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176495</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>235.2280993679289</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4744702703046</v>
+        <v>263.0982947971532</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1500611056091</v>
+        <v>324.150061105609</v>
       </c>
       <c r="N41" t="n">
-        <v>77.99187771560555</v>
+        <v>318.590459853373</v>
       </c>
       <c r="O41" t="n">
-        <v>36.3633379842375</v>
+        <v>36.36333798423748</v>
       </c>
       <c r="P41" t="n">
-        <v>36.17557980110706</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0386142083904</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037788</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585934</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.17938957609545</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L42" t="n">
         <v>119.7571625941459</v>
@@ -37874,7 +37874,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P42" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>104.3569756867327</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.25559624512077</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.243914006445259</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.85746543516668</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7221960176495</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.36333704960738</v>
+        <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
-        <v>48.87588813253703</v>
+        <v>289.4744702703046</v>
       </c>
       <c r="M44" t="n">
-        <v>83.55147896784158</v>
+        <v>324.150061105609</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5904598533731</v>
+        <v>250.0413287012224</v>
       </c>
       <c r="O44" t="n">
         <v>276.961920122005</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0403421194285</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083904</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037788</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32463084585934</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>18.17938957609545</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L45" t="n">
         <v>119.7571625941459</v>
@@ -38111,7 +38111,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398587</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>104.3569756867327</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
